--- a/低功耗蓝牙开发权威指南_Modify.xlsx
+++ b/低功耗蓝牙开发权威指南_Modify.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11250" windowHeight="6840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="table 1-1" sheetId="1" r:id="rId1"/>
     <sheet name="table 1-2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
   <si>
     <t>V.21</t>
   </si>
@@ -124,6 +125,99 @@
   </si>
   <si>
     <t>√</t>
+  </si>
+  <si>
+    <t>路径损耗（path loss）</t>
+  </si>
+  <si>
+    <t>距离（d）</t>
+  </si>
+  <si>
+    <t>50dB</t>
+  </si>
+  <si>
+    <t>2.5m</t>
+  </si>
+  <si>
+    <t>60dB</t>
+  </si>
+  <si>
+    <t>70dB</t>
+  </si>
+  <si>
+    <t>80dB</t>
+  </si>
+  <si>
+    <t>90dB</t>
+  </si>
+  <si>
+    <t>100dB</t>
+  </si>
+  <si>
+    <t>110dB</t>
+  </si>
+  <si>
+    <t>6.3m</t>
+  </si>
+  <si>
+    <t>16m</t>
+  </si>
+  <si>
+    <t>40m</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>250m</t>
+  </si>
+  <si>
+    <t>630m</t>
+  </si>
+  <si>
+    <t>Direct Test Mode</t>
+  </si>
+  <si>
+    <t>HCI</t>
+  </si>
+  <si>
+    <t>Direct Test Mode Command or Event</t>
+  </si>
+  <si>
+    <t>HCI Command or Event</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>HCI Reset</t>
+  </si>
+  <si>
+    <t>Transmitter Test</t>
+  </si>
+  <si>
+    <t>HCI LE Transmitter Test</t>
+  </si>
+  <si>
+    <t>Receiver Test</t>
+  </si>
+  <si>
+    <t>HCI LE Receiver Test</t>
+  </si>
+  <si>
+    <t>Test End</t>
+  </si>
+  <si>
+    <t>HCI LE Test End</t>
+  </si>
+  <si>
+    <t>Test Status</t>
+  </si>
+  <si>
+    <t>HCI Command Complete</t>
+  </si>
+  <si>
+    <t>Packet Reporting</t>
   </si>
 </sst>
 </file>
@@ -145,7 +239,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +270,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -402,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -427,18 +527,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -474,6 +562,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -790,22 +917,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="31"/>
+      <c r="E1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="31"/>
+      <c r="G1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -937,62 +1064,62 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="10.7109375" style="14" customWidth="1"/>
+    <col min="1" max="3" width="10.7109375" style="10" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="18"/>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="14"/>
+      <c r="B1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="16"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="16"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="12"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1002,12 +1129,165 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="35.7109375" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/低功耗蓝牙开发权威指南_Modify.xlsx
+++ b/低功耗蓝牙开发权威指南_Modify.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11250" windowHeight="6840" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11250" windowHeight="6840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="table 1-1" sheetId="1" r:id="rId1"/>
     <sheet name="table 1-2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
   <si>
     <t>V.21</t>
   </si>
@@ -218,6 +219,118 @@
   </si>
   <si>
     <t>Packet Reporting</t>
+  </si>
+  <si>
+    <t>ATT PDUs</t>
+  </si>
+  <si>
+    <t>GATT Procedures</t>
+  </si>
+  <si>
+    <t>Exchange MTU Request</t>
+  </si>
+  <si>
+    <t>Exchange MTU procedure</t>
+  </si>
+  <si>
+    <t>Find Information Request</t>
+  </si>
+  <si>
+    <t>Discover All Characteristic Descriptors procedure</t>
+  </si>
+  <si>
+    <t>Find By Type Value Request</t>
+  </si>
+  <si>
+    <t>Discover Primary Services By Service UUID procedure</t>
+  </si>
+  <si>
+    <t>Read By Type Request</t>
+  </si>
+  <si>
+    <t>Read Request</t>
+  </si>
+  <si>
+    <t>Find Included Services procedures</t>
+  </si>
+  <si>
+    <t>Discover All Characteristics of a
+Service procedures</t>
+  </si>
+  <si>
+    <t>Discover Characteristics by UUID procedures</t>
+  </si>
+  <si>
+    <t>Read Using Characteristic UUID procedures</t>
+  </si>
+  <si>
+    <t>Read Characteristic Value procedures</t>
+  </si>
+  <si>
+    <t>Read Characteristic Descriptors procedures</t>
+  </si>
+  <si>
+    <t>Read Blob Request</t>
+  </si>
+  <si>
+    <t>Read Long Characteristic Descriptors procedures</t>
+  </si>
+  <si>
+    <t>Read Long Characteristic Values procedures</t>
+  </si>
+  <si>
+    <t>Read Multiple Request</t>
+  </si>
+  <si>
+    <t>Read Multiple Characteristic Values procedure</t>
+  </si>
+  <si>
+    <t>Read By Group Type Request</t>
+  </si>
+  <si>
+    <t>Discover All Primary Services procedure</t>
+  </si>
+  <si>
+    <t>Write Request</t>
+  </si>
+  <si>
+    <t>Write Characteristic Descriptor procedures</t>
+  </si>
+  <si>
+    <t>Write Characteristic Value procedures</t>
+  </si>
+  <si>
+    <t>Write Command</t>
+  </si>
+  <si>
+    <t>Write Without Response procedure</t>
+  </si>
+  <si>
+    <t>Signed Write Command</t>
+  </si>
+  <si>
+    <t>Signed Write Without Response procedure</t>
+  </si>
+  <si>
+    <t>Prepare Write Request and Execute Write Request</t>
+  </si>
+  <si>
+    <t>Write Long Characteristic Value procedure</t>
+  </si>
+  <si>
+    <t>Characteristic Value Reliable Writes procedure</t>
+  </si>
+  <si>
+    <t>Write Long Characteristic Descriptors procedures</t>
+  </si>
+  <si>
+    <t>Handle Value Notification</t>
+  </si>
+  <si>
+    <t>Notification procedure</t>
+  </si>
+  <si>
+    <t>Indication procedure</t>
   </si>
 </sst>
 </file>
@@ -277,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -498,11 +611,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -585,6 +735,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,11 +753,41 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,22 +1103,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="33"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1214,7 +1400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1224,10 +1410,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="31" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1290,4 +1476,203 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" style="36" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="42"/>
+      <c r="B6" s="41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="42"/>
+      <c r="B7" s="41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="42"/>
+      <c r="B10" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="42"/>
+      <c r="B12" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A19:A21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/低功耗蓝牙开发权威指南_Modify.xlsx
+++ b/低功耗蓝牙开发权威指南_Modify.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11250" windowHeight="6840" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11250" windowHeight="6840" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="table 1-1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,18 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet7" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet8" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="306">
   <si>
     <t>V.21</t>
   </si>
@@ -331,13 +336,683 @@
   </si>
   <si>
     <t>Indication procedure</t>
+  </si>
+  <si>
+    <t>Package Name</t>
+  </si>
+  <si>
+    <t>Advertising PDUs</t>
+  </si>
+  <si>
+    <t>ADV_IND</t>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>ADV_DIRECT_IND</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>ADV_NONCONN_IND</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>ADV_SCAN_IND</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t> PDU Type Value
+b3 b2 b1 b0</t>
+  </si>
+  <si>
+    <t>Scanning PDUs</t>
+  </si>
+  <si>
+    <t>SCAN_REQ</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>SCAN_RSP</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>Initiating PDUs</t>
+  </si>
+  <si>
+    <t>CONNECT_REQ</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>0111-1111</t>
+  </si>
+  <si>
+    <t>reversed</t>
+  </si>
+  <si>
+    <t>Payload Content</t>
+  </si>
+  <si>
+    <t>AdvData
+0-31 byte</t>
+  </si>
+  <si>
+    <t>AdvA(TxAdd)
+6 byte</t>
+  </si>
+  <si>
+    <t>InitA( RxAdd)
+6 byte</t>
+  </si>
+  <si>
+    <t>ScanA(TxAdd)
+6 byte</t>
+  </si>
+  <si>
+    <t>AdvA( RxAdd)
+6 byte</t>
+  </si>
+  <si>
+    <t>ScanRspData
+0-31 byte</t>
+  </si>
+  <si>
+    <t>InitA(TxAdd)
+6 byte</t>
+  </si>
+  <si>
+    <t>LLData
+22 byte</t>
+  </si>
+  <si>
+    <t>Control PDU Name</t>
+  </si>
+  <si>
+    <t>LL_CONNECTION_UPDATE_REQ</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>LL_CHANNEL_MAP_REQ</t>
+  </si>
+  <si>
+    <t>0x01</t>
+  </si>
+  <si>
+    <t>LL_TERMINATE_IND</t>
+  </si>
+  <si>
+    <t>0x02</t>
+  </si>
+  <si>
+    <t>LL_ENC_REQ</t>
+  </si>
+  <si>
+    <t>0x03</t>
+  </si>
+  <si>
+    <t>LL_ENC_RSP</t>
+  </si>
+  <si>
+    <t>0x04</t>
+  </si>
+  <si>
+    <t>LL_START_ENC_REQ</t>
+  </si>
+  <si>
+    <t>0x05</t>
+  </si>
+  <si>
+    <t>LL_START_ENC_RSP</t>
+  </si>
+  <si>
+    <t>0x06</t>
+  </si>
+  <si>
+    <t>LL_UNKNOWN_RSP</t>
+  </si>
+  <si>
+    <t>0x07</t>
+  </si>
+  <si>
+    <t>LL_FEATURE_REQ</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>LL_FEATURE_RSP</t>
+  </si>
+  <si>
+    <t>0x09</t>
+  </si>
+  <si>
+    <t>LL_PAUSE_ENC_REQ</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>LL_PAUSE_ENC_RSP</t>
+  </si>
+  <si>
+    <t>0x0B</t>
+  </si>
+  <si>
+    <t>LL_VERSION_IND</t>
+  </si>
+  <si>
+    <t>0x0C</t>
+  </si>
+  <si>
+    <t>LL_REJECT_IND</t>
+  </si>
+  <si>
+    <t>0x0D</t>
+  </si>
+  <si>
+    <t>LL_SLAVE_FEATURE_REQ</t>
+  </si>
+  <si>
+    <t>0x0E</t>
+  </si>
+  <si>
+    <t>LL_CONNECTION_PARAM_REQ</t>
+  </si>
+  <si>
+    <t>0x0F</t>
+  </si>
+  <si>
+    <t>LL_CONNECTION_PARAM_RSP</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>LL_REJECT_IND_EXT</t>
+  </si>
+  <si>
+    <t>0x11</t>
+  </si>
+  <si>
+    <t>LL_PING_REQ</t>
+  </si>
+  <si>
+    <t>0x12</t>
+  </si>
+  <si>
+    <t>LL_PING_RSP</t>
+  </si>
+  <si>
+    <t>0x13</t>
+  </si>
+  <si>
+    <t>LL_LENGTH_REQ</t>
+  </si>
+  <si>
+    <t>0x14</t>
+  </si>
+  <si>
+    <t>LL_LENGTH_RSP</t>
+  </si>
+  <si>
+    <t>0x15</t>
+  </si>
+  <si>
+    <t>Reserved for Future Use</t>
+  </si>
+  <si>
+    <t>0x16-0xFF</t>
+  </si>
+  <si>
+    <t>WinSize
+1 byte</t>
+  </si>
+  <si>
+    <t>WinOffset
+2 byte</t>
+  </si>
+  <si>
+    <t>Interval
+2 byte</t>
+  </si>
+  <si>
+    <t>Latency
+2 byte</t>
+  </si>
+  <si>
+    <t>Timeout
+2 byte</t>
+  </si>
+  <si>
+    <t>Instant
+2 byte</t>
+  </si>
+  <si>
+    <t>ChM
+5 byte</t>
+  </si>
+  <si>
+    <t>Error
+code
+1byte</t>
+  </si>
+  <si>
+    <t>Rand
+8 byte</t>
+  </si>
+  <si>
+    <t>EDIV
+2 byte</t>
+  </si>
+  <si>
+    <t>SKDm
+8 byte</t>
+  </si>
+  <si>
+    <t>Ivm
+4 byte</t>
+  </si>
+  <si>
+    <t>Ivs
+4 byte</t>
+  </si>
+  <si>
+    <t>SKDs
+8 byte</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Unknown
+Type
+1 byte</t>
+  </si>
+  <si>
+    <t>Feature
+Set
+8 byte</t>
+  </si>
+  <si>
+    <t>VersNr
+1 byte</t>
+  </si>
+  <si>
+    <t>CompId
+2 byte</t>
+  </si>
+  <si>
+    <t>SubVersNr
+2 byte</t>
+  </si>
+  <si>
+    <t>Error 
+Code
+1 byte</t>
+  </si>
+  <si>
+    <t>Reference
+ConnEvent
+Count
+2 byte</t>
+  </si>
+  <si>
+    <t>Interval
+Min
+2 byte</t>
+  </si>
+  <si>
+    <t>Interval
+Max
+2 byte</t>
+  </si>
+  <si>
+    <t>Latency
+2 byte</t>
+  </si>
+  <si>
+    <t>Timeout
+2 byte</t>
+  </si>
+  <si>
+    <t>Preferred
+Periodicity
+1 byte</t>
+  </si>
+  <si>
+    <t>Offset0
+2 byte</t>
+  </si>
+  <si>
+    <t>——</t>
+  </si>
+  <si>
+    <t>Offset15
+2 byte</t>
+  </si>
+  <si>
+    <t>Opcode
+1 byte</t>
+  </si>
+  <si>
+    <t>CtrData
+0-26 byte</t>
+  </si>
+  <si>
+    <t>Reject
+Opcode
+1 byte</t>
+  </si>
+  <si>
+    <t>Error Code
+1byte</t>
+  </si>
+  <si>
+    <t>MaxRx
+Octets
+2 byte</t>
+  </si>
+  <si>
+    <t>MaxRx
+Time
+2 byte</t>
+  </si>
+  <si>
+    <t>MaxTx
+Octets
+2 byte</t>
+  </si>
+  <si>
+    <t>MaxTx
+Time
+2 byte</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Logical Link
+Supported</t>
+  </si>
+  <si>
+    <t>0x0000</t>
+  </si>
+  <si>
+    <t>Null identifier</t>
+  </si>
+  <si>
+    <t>0x0001</t>
+  </si>
+  <si>
+    <t>L2CAP Signaling channel</t>
+  </si>
+  <si>
+    <t>ACL-U</t>
+  </si>
+  <si>
+    <t>0x0002</t>
+  </si>
+  <si>
+    <t>Connectionless channel</t>
+  </si>
+  <si>
+    <t>0x0003</t>
+  </si>
+  <si>
+    <t>AMP Manager Protocol</t>
+  </si>
+  <si>
+    <t>0x0004</t>
+  </si>
+  <si>
+    <t>Attribute Protocol</t>
+  </si>
+  <si>
+    <t>LE-U</t>
+  </si>
+  <si>
+    <t>0x0005</t>
+  </si>
+  <si>
+    <t>0x0006</t>
+  </si>
+  <si>
+    <t>Low Energy L2CAP Signaling channel</t>
+  </si>
+  <si>
+    <t>Security Manager Protocol</t>
+  </si>
+  <si>
+    <t>0x0007</t>
+  </si>
+  <si>
+    <t>BR/EDR Security Manager</t>
+  </si>
+  <si>
+    <t>0x0008-0x001F</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>0x0020-0x003E</t>
+  </si>
+  <si>
+    <t>Assigned Numbers</t>
+  </si>
+  <si>
+    <t>0x003F</t>
+  </si>
+  <si>
+    <t>AMP Test Manager</t>
+  </si>
+  <si>
+    <t>0x0040-0x007F</t>
+  </si>
+  <si>
+    <t>ACL-U
+AMP-U</t>
+  </si>
+  <si>
+    <t>ACL-U
+AMP-U
+LE-U</t>
+  </si>
+  <si>
+    <t>0x0080-0xFFFF</t>
+  </si>
+  <si>
+    <t>Dynamically Allocated</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>CIDs on which Code is Allowed</t>
+  </si>
+  <si>
+    <t>0x16</t>
+  </si>
+  <si>
+    <t>0x17-0xFF</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Command reject</t>
+  </si>
+  <si>
+    <t>0x0001 and 0x0005</t>
+  </si>
+  <si>
+    <t>Connection request</t>
+  </si>
+  <si>
+    <t>Connection response</t>
+  </si>
+  <si>
+    <t>Configure request</t>
+  </si>
+  <si>
+    <t>Configure response</t>
+  </si>
+  <si>
+    <t>Disconnection request</t>
+  </si>
+  <si>
+    <t>Disconnection response</t>
+  </si>
+  <si>
+    <t>Echo request</t>
+  </si>
+  <si>
+    <t>Echo response</t>
+  </si>
+  <si>
+    <t>Information request</t>
+  </si>
+  <si>
+    <t>Information response</t>
+  </si>
+  <si>
+    <t>Create Channel request</t>
+  </si>
+  <si>
+    <t>Create Channel response</t>
+  </si>
+  <si>
+    <t>Move Channel request</t>
+  </si>
+  <si>
+    <t>Move Channel response</t>
+  </si>
+  <si>
+    <t>Move Channel Confirmation</t>
+  </si>
+  <si>
+    <t>Move Channel Confirmation response</t>
+  </si>
+  <si>
+    <t>Connection Parameter Update request</t>
+  </si>
+  <si>
+    <t>Connection Parameter Update response</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reserved</t>
+  </si>
+  <si>
+    <t>LE Credit Based Connection request</t>
+  </si>
+  <si>
+    <t>LE Credit Based Connection response</t>
+  </si>
+  <si>
+    <t>LE Flow Control Credit</t>
+  </si>
+  <si>
+    <t>Code=0x01</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>1 byte</t>
+  </si>
+  <si>
+    <t>2 byte</t>
+  </si>
+  <si>
+    <t>0-4 byte</t>
+  </si>
+  <si>
+    <t>Code=0x06</t>
+  </si>
+  <si>
+    <t>Destination CID</t>
+  </si>
+  <si>
+    <t>Source CID</t>
+  </si>
+  <si>
+    <t>Code=0x07</t>
+  </si>
+  <si>
+    <t>Code=0x12</t>
+  </si>
+  <si>
+    <t>Interval Min</t>
+  </si>
+  <si>
+    <t>Interval Max</t>
+  </si>
+  <si>
+    <t>Slave Latency</t>
+  </si>
+  <si>
+    <t>Timeout 
+Multiplier</t>
+  </si>
+  <si>
+    <t>Code=0x13</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>LE_PSM</t>
+  </si>
+  <si>
+    <t>MTU</t>
+  </si>
+  <si>
+    <t>MPS</t>
+  </si>
+  <si>
+    <t>Initial Credits</t>
+  </si>
+  <si>
+    <t>Code=0x14</t>
+  </si>
+  <si>
+    <t>Code=0x15</t>
+  </si>
+  <si>
+    <t>Credits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,8 +1026,31 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,8 +1087,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FD9B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA2FAFE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7FFEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -648,11 +1376,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -741,6 +1519,114 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -753,24 +1639,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -783,18 +1651,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA2FAFE"/>
+      <color rgb="FFE7FFEE"/>
+      <color rgb="FFCEFEDD"/>
+      <color rgb="FF99FD9B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1103,22 +2014,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="34" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34" t="s">
+      <c r="F1" s="71"/>
+      <c r="G1" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="35"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1243,6 +2154,340 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="7" width="14.7109375" style="63" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="B9" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="G14" s="50" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="C17" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="E21" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="G21" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="H21" s="65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D22" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="F25" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="H25" s="65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D26" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>300</v>
+      </c>
+      <c r="F26" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="G26" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="E29" s="65" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="D30" s="41" t="s">
+        <v>219</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1318,7 +2563,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1482,187 +2727,187 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" style="36" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="36" customWidth="1"/>
+    <col min="1" max="1" width="38" style="32" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="35" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="37" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="37" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="37" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="37" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="37" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
-      <c r="B7" s="41" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="37" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="37" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="37" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="41" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="37" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="37" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="37" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="37" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="37" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="76"/>
+      <c r="B16" s="37" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="37" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="37" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="37" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="41" t="s">
+      <c r="A20" s="77"/>
+      <c r="B20" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="41" t="s">
+      <c r="A21" s="76"/>
+      <c r="B21" s="37" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="37" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="39" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1675,4 +2920,1211 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="78"/>
+      <c r="E1" s="79"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="51"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="51"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="51"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="51"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="82"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="51"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="82"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="51"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="80" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="82"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="41"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A12:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="41" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="57" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>211</v>
+      </c>
+      <c r="C1" s="83" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="85"/>
+    </row>
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="62" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="62" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="62" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+    </row>
+    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="62" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+    </row>
+    <row r="15" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="F17" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="H17" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="J17" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="K17" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="62" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>205</v>
+      </c>
+      <c r="F18" s="59" t="s">
+        <v>206</v>
+      </c>
+      <c r="G18" s="59" t="s">
+        <v>207</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="I18" s="59" t="s">
+        <v>208</v>
+      </c>
+      <c r="J18" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="K18" s="59" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>214</v>
+      </c>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+    </row>
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+    </row>
+    <row r="23" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="59" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="62" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="63" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="69" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="69" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>243</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" s="69" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="64"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="86" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="87" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="90" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>259</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="91" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="92" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="91" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>264</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>265</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="90" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="90" t="s">
+        <v>270</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" s="90" t="s">
+        <v>271</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B19" s="90" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="92" t="s">
+        <v>274</v>
+      </c>
+      <c r="C20" s="92" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="91" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="C21" s="92" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="92" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="91" t="s">
+        <v>178</v>
+      </c>
+      <c r="B23" s="92" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="92" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="91" t="s">
+        <v>253</v>
+      </c>
+      <c r="B24" s="92" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="92" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="89" t="s">
+        <v>254</v>
+      </c>
+      <c r="B25" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="90" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
 </file>
--- a/低功耗蓝牙开发权威指南_Modify.xlsx
+++ b/低功耗蓝牙开发权威指南_Modify.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11250" windowHeight="6840" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11250" windowHeight="6840" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="table 1-1" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,17 @@
     <sheet name="Sheet6" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet7" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet8" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet9" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet10" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet11" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet12" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="411">
   <si>
     <t>V.21</t>
   </si>
@@ -1006,6 +1010,341 @@
   </si>
   <si>
     <t>Credits</t>
+  </si>
+  <si>
+    <t>Attribute PDU Name</t>
+  </si>
+  <si>
+    <t>Attribute Opcode</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>0x17</t>
+  </si>
+  <si>
+    <t>Error Response</t>
+  </si>
+  <si>
+    <t>Request Opcode in Error,
+Attribute Handle In Error,
+Error Code</t>
+  </si>
+  <si>
+    <t>Exchange MTU Response</t>
+  </si>
+  <si>
+    <t>Find Information Response</t>
+  </si>
+  <si>
+    <t>Find By Type Value Response</t>
+  </si>
+  <si>
+    <t>Read By Type Response</t>
+  </si>
+  <si>
+    <t>Read Response</t>
+  </si>
+  <si>
+    <t>Read Blob Response</t>
+  </si>
+  <si>
+    <t>Read Multiple Response</t>
+  </si>
+  <si>
+    <t>Read by Group Type Request</t>
+  </si>
+  <si>
+    <t>Read by Group Type Response</t>
+  </si>
+  <si>
+    <t>Write Response</t>
+  </si>
+  <si>
+    <t>Client Rx MTU</t>
+  </si>
+  <si>
+    <t>Server Rx MTU</t>
+  </si>
+  <si>
+    <t>Starting Handle,
+Ending Handle,
+UUID</t>
+  </si>
+  <si>
+    <t>Format,
+Information Data</t>
+  </si>
+  <si>
+    <t>Starting Handle,
+Ending Handle,
+Attribute Type,
+Attribute Value</t>
+  </si>
+  <si>
+    <t>Handles Information List</t>
+  </si>
+  <si>
+    <t>Length,
+Attribute Data List</t>
+  </si>
+  <si>
+    <t>Attribute Handle</t>
+  </si>
+  <si>
+    <t>Attribute Value</t>
+  </si>
+  <si>
+    <t>Attribute Handle,
+Value Offset</t>
+  </si>
+  <si>
+    <t>Part Attribute Value</t>
+  </si>
+  <si>
+    <t>Handle Set</t>
+  </si>
+  <si>
+    <t>Value Set</t>
+  </si>
+  <si>
+    <t>Start Handle,
+Ending Handle,
+UUID</t>
+  </si>
+  <si>
+    <t>Attribute Handle,
+Attribute Value</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Error Code</t>
+  </si>
+  <si>
+    <t>Invalid Handle</t>
+  </si>
+  <si>
+    <t>Read Not Permitted</t>
+  </si>
+  <si>
+    <t>Write Not Permitted</t>
+  </si>
+  <si>
+    <t>Invalid PDU</t>
+  </si>
+  <si>
+    <t>Insufficient Authentication</t>
+  </si>
+  <si>
+    <t>Request Not Supported</t>
+  </si>
+  <si>
+    <t>Invalid Offset</t>
+  </si>
+  <si>
+    <t>Insufficient Authorization</t>
+  </si>
+  <si>
+    <t>Prepare Queue Full</t>
+  </si>
+  <si>
+    <t>Attribute Not Found</t>
+  </si>
+  <si>
+    <t>Attribute Not Long</t>
+  </si>
+  <si>
+    <t>Insufficient Encryption Key Size</t>
+  </si>
+  <si>
+    <t>Invalid Attribute Value Length</t>
+  </si>
+  <si>
+    <t>Unlikely Error</t>
+  </si>
+  <si>
+    <t>Insufficient Encryption</t>
+  </si>
+  <si>
+    <t>Unsupported Group Type</t>
+  </si>
+  <si>
+    <t>Insufficient Resources</t>
+  </si>
+  <si>
+    <t>0x12-0x7F</t>
+  </si>
+  <si>
+    <t>Application Error</t>
+  </si>
+  <si>
+    <t>0x80-0x9F</t>
+  </si>
+  <si>
+    <t>0xA0 – 0xDF</t>
+  </si>
+  <si>
+    <t>Common Profile and Service Error Codes</t>
+  </si>
+  <si>
+    <t>0xE0 – 0xFF</t>
+  </si>
+  <si>
+    <t>Common profile and service error codes defined in [Core Specification Supplement], Part B.</t>
+  </si>
+  <si>
+    <t>Reserved for future use</t>
+  </si>
+  <si>
+    <t>Application error code defined by a higher layer specification.</t>
+  </si>
+  <si>
+    <t>Reserved for future use.</t>
+  </si>
+  <si>
+    <t>Insufficient Resources to complete the
+request.</t>
+  </si>
+  <si>
+    <t>The attribute requires encryption before it can be read or written.</t>
+  </si>
+  <si>
+    <t>The attribute type is not a supported grouping attribute as defined by a higher layer specification.</t>
+  </si>
+  <si>
+    <t>The attribute request that was requested has encountered an error that was unlikely, and therefore could not be completed as requested.</t>
+  </si>
+  <si>
+    <t>The attribute value length is invalid for the operation.</t>
+  </si>
+  <si>
+    <t>The Encryption Key Size used for encrypting this link is insufficient.</t>
+  </si>
+  <si>
+    <t>The attribute cannot be read or written using the Read Blob Request.</t>
+  </si>
+  <si>
+    <t>No attribute found within the given attribute handle range.</t>
+  </si>
+  <si>
+    <t>Too many prepare writes have been queued.</t>
+  </si>
+  <si>
+    <t>The attribute requires authorization before it can be read or written.</t>
+  </si>
+  <si>
+    <t>Offset specified was past the end of the attribute.</t>
+  </si>
+  <si>
+    <t>Attribute server does not support the request received from the client.</t>
+  </si>
+  <si>
+    <t>The attribute requires authentication before it can be read or written.</t>
+  </si>
+  <si>
+    <t>The attribute PDU was invalid.</t>
+  </si>
+  <si>
+    <t>The attribute cannot be written.</t>
+  </si>
+  <si>
+    <t>The attribute cannot be read.</t>
+  </si>
+  <si>
+    <t>The attribute handle given was not valid on this server.</t>
+  </si>
+  <si>
+    <t>Attribute PDU Method</t>
+  </si>
+  <si>
+    <t>Successful Response</t>
+  </si>
+  <si>
+    <t>Error Response Allowed</t>
+  </si>
+  <si>
+    <t>Error Response Error Codes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Invalid Handle,
+Attribute Not Found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request Not Supported
+</t>
+  </si>
+  <si>
+    <t>Read Not Permitted,</t>
+  </si>
+  <si>
+    <t>Insufficient Authentication,</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Prepare Write Request</t>
+  </si>
+  <si>
+    <t>Prepare Write Response</t>
+  </si>
+  <si>
+    <t>Insufficient Encryption Key Size,</t>
+  </si>
+  <si>
+    <t>Execute Write</t>
+  </si>
+  <si>
+    <t>Handle Value Indication</t>
+  </si>
+  <si>
+    <t>Handle Value Confirmation</t>
+  </si>
+  <si>
+    <t>0x52</t>
+  </si>
+  <si>
+    <t>Attribute Handle,
+Value Offset,
+Part Attribute Value</t>
+  </si>
+  <si>
+    <t>Execute Write Request</t>
+  </si>
+  <si>
+    <t>0x18</t>
+  </si>
+  <si>
+    <t>Flags</t>
+  </si>
+  <si>
+    <t>Execute Write Response</t>
+  </si>
+  <si>
+    <t>0x19</t>
+  </si>
+  <si>
+    <t>0x1B</t>
+  </si>
+  <si>
+    <t>0x1D</t>
+  </si>
+  <si>
+    <t>0xD2</t>
+  </si>
+  <si>
+    <t>Attribute Handle,
+Attribute Value,
+Authentication Signature</t>
+  </si>
+  <si>
+    <t>0x1E</t>
   </si>
 </sst>
 </file>
@@ -1050,7 +1389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1117,8 +1456,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA7E2F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1426,11 +1771,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1627,54 +1996,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1692,6 +2013,142 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1700,6 +2157,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFA7E2F7"/>
+      <color rgb="FF9AC8EE"/>
       <color rgb="FFA2FAFE"/>
       <color rgb="FFE7FFEE"/>
       <color rgb="FFCEFEDD"/>
@@ -2014,22 +2473,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="92"/>
+      <c r="E1" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72" t="s">
+      <c r="F1" s="92"/>
+      <c r="G1" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="73"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2161,7 +2620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A29" sqref="A29:E30"/>
     </sheetView>
   </sheetViews>
@@ -2488,6 +2947,1209 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" style="43" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="63" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>307</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>312</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="87" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="84" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>316</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="87" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="84" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="88" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="87" t="s">
+        <v>399</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="88" t="s">
+        <v>393</v>
+      </c>
+      <c r="B23" s="87" t="s">
+        <v>253</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="88" t="s">
+        <v>401</v>
+      </c>
+      <c r="B25" s="87" t="s">
+        <v>402</v>
+      </c>
+      <c r="C25" s="84" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>405</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>406</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>397</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="88" t="s">
+        <v>398</v>
+      </c>
+      <c r="B29" s="89" t="s">
+        <v>410</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" style="78" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="63" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>340</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="79" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="50" customWidth="1"/>
+    <col min="4" max="5" width="30.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="77" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
+        <v>383</v>
+      </c>
+      <c r="B1" s="81" t="s">
+        <v>384</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>385</v>
+      </c>
+      <c r="D1" s="119" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1" s="119"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>313</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>339</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="113" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>387</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="114"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="85" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="114"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="82" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" s="82" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="114"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="115"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="118"/>
+      <c r="D9" s="84" t="s">
+        <v>357</v>
+      </c>
+      <c r="E9" s="84"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="120" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="111"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="111"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="108"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="113" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" s="116" t="s">
+        <v>387</v>
+      </c>
+      <c r="D14" s="84" t="s">
+        <v>339</v>
+      </c>
+      <c r="E14" s="84" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="114"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="84" t="s">
+        <v>346</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="114"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="84" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="114"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="84" t="s">
+        <v>340</v>
+      </c>
+      <c r="E17" s="84" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="115"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="84" t="s">
+        <v>349</v>
+      </c>
+      <c r="E18" s="84" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="107" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="107" t="s">
+        <v>318</v>
+      </c>
+      <c r="C19" s="109" t="s">
+        <v>387</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="111"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="111"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="113" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23" s="113" t="s">
+        <v>320</v>
+      </c>
+      <c r="C23" s="116" t="s">
+        <v>387</v>
+      </c>
+      <c r="D23" s="84" t="s">
+        <v>339</v>
+      </c>
+      <c r="E23" s="84" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="84" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" s="84" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="114"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="84" t="s">
+        <v>343</v>
+      </c>
+      <c r="E25" s="84" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="114"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="84" t="s">
+        <v>350</v>
+      </c>
+      <c r="E26" s="84" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="115"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="84" t="s">
+        <v>354</v>
+      </c>
+      <c r="E27" s="84" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="107" t="s">
+        <v>321</v>
+      </c>
+      <c r="C28" s="109" t="s">
+        <v>387</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="111"/>
+      <c r="B31" s="111"/>
+      <c r="C31" s="112"/>
+      <c r="D31" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="108"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="C33" s="86" t="s">
+        <v>392</v>
+      </c>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="113" t="s">
+        <v>393</v>
+      </c>
+      <c r="B35" s="113" t="s">
+        <v>394</v>
+      </c>
+      <c r="C35" s="116" t="s">
+        <v>387</v>
+      </c>
+      <c r="D35" s="84" t="s">
+        <v>339</v>
+      </c>
+      <c r="E35" s="84" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="114"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="84" t="s">
+        <v>346</v>
+      </c>
+      <c r="E36" s="84" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="114"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="84" t="s">
+        <v>341</v>
+      </c>
+      <c r="E37" s="84" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="114"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="84" t="s">
+        <v>353</v>
+      </c>
+      <c r="E38" s="84" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="115"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="118"/>
+      <c r="D39" s="84" t="s">
+        <v>357</v>
+      </c>
+      <c r="E39" s="84"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="107" t="s">
+        <v>396</v>
+      </c>
+      <c r="B40" s="107" t="s">
+        <v>396</v>
+      </c>
+      <c r="C40" s="109" t="s">
+        <v>387</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="108"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="82" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="86" t="s">
+        <v>392</v>
+      </c>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2770,7 +4432,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="95" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="37" t="s">
@@ -2778,25 +4440,25 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="37" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="37" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="37" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="95" t="s">
         <v>76</v>
       </c>
       <c r="B9" s="37" t="s">
@@ -2804,13 +4466,13 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="37" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="95" t="s">
         <v>83</v>
       </c>
       <c r="B11" s="37" t="s">
@@ -2818,7 +4480,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
+      <c r="A12" s="95"/>
       <c r="B12" s="37" t="s">
         <v>84</v>
       </c>
@@ -2840,7 +4502,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="75" t="s">
+      <c r="A15" s="96" t="s">
         <v>90</v>
       </c>
       <c r="B15" s="37" t="s">
@@ -2848,7 +4510,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="37" t="s">
         <v>91</v>
       </c>
@@ -2870,7 +4532,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="96" t="s">
         <v>97</v>
       </c>
       <c r="B19" s="37" t="s">
@@ -2878,13 +4540,13 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
+      <c r="A20" s="98"/>
       <c r="B20" s="37" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
+      <c r="A21" s="97"/>
       <c r="B21" s="37" t="s">
         <v>100</v>
       </c>
@@ -2944,20 +4606,20 @@
       <c r="B1" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="78"/>
-      <c r="E1" s="79"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="100"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
@@ -3020,13 +4682,13 @@
       <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="82"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="103"/>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
@@ -3061,13 +4723,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="82"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="103"/>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
@@ -3083,13 +4745,13 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="82"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
@@ -3133,7 +4795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -3159,17 +4821,17 @@
       <c r="B1" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="85"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="106"/>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
@@ -3849,277 +5511,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="70" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="72" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="74" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91" t="s">
+      <c r="A3" s="75" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="76" t="s">
         <v>256</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="76" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="74" t="s">
         <v>258</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="74" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="74" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="74" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="73" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="74" t="s">
         <v>260</v>
       </c>
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="74" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="74" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="91" t="s">
+      <c r="A8" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="76" t="s">
         <v>262</v>
       </c>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="76" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="76" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="76" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="74" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="74" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="90" t="s">
+      <c r="C11" s="74" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="90" t="s">
+      <c r="B12" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="74" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="73" t="s">
         <v>158</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="74" t="s">
         <v>267</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="74" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="74" t="s">
         <v>268</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="74" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="74" t="s">
         <v>269</v>
       </c>
-      <c r="C15" s="90" t="s">
+      <c r="C15" s="74" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="73" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="90" t="s">
+      <c r="B16" s="74" t="s">
         <v>270</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="74" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="74" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="74" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
+      <c r="A19" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="74" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91" t="s">
+      <c r="A20" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="76" t="s">
         <v>274</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="76" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="76" t="s">
         <v>275</v>
       </c>
-      <c r="C21" s="92" t="s">
+      <c r="C21" s="76" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="91" t="s">
+      <c r="A22" s="75" t="s">
         <v>176</v>
       </c>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="76" t="s">
         <v>277</v>
       </c>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="76" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="91" t="s">
+      <c r="A23" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="76" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="75" t="s">
         <v>253</v>
       </c>
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="76" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89" t="s">
+      <c r="A25" s="73" t="s">
         <v>254</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="74" t="s">
         <v>255</v>
       </c>
     </row>

--- a/低功耗蓝牙开发权威指南_Modify.xlsx
+++ b/低功耗蓝牙开发权威指南_Modify.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="11250" windowHeight="6840" firstSheet="7" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="11250" windowHeight="6840"/>
   </bookViews>
   <sheets>
     <sheet name="table 1-1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="414">
   <si>
     <t>V.21</t>
   </si>
@@ -1345,6 +1345,15 @@
   </si>
   <si>
     <t>0x1E</t>
+  </si>
+  <si>
+    <t>11Mbps</t>
+  </si>
+  <si>
+    <t>54Mbps</t>
+  </si>
+  <si>
+    <t>135Mbps</t>
   </si>
 </sst>
 </file>
@@ -2101,52 +2110,52 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2462,8 +2471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,7 +2542,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>26</v>
@@ -2559,7 +2568,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>412</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>27</v>
@@ -2585,7 +2594,7 @@
         <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>23</v>
+        <v>413</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>28</v>
@@ -3587,10 +3596,10 @@
       <c r="C1" s="81" t="s">
         <v>385</v>
       </c>
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="107" t="s">
         <v>386</v>
       </c>
-      <c r="E1" s="119"/>
+      <c r="E1" s="107"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -3641,13 +3650,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="111" t="s">
         <v>315</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C5" s="111" t="s">
         <v>387</v>
       </c>
       <c r="D5" s="82" t="s">
@@ -3658,9 +3667,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="117"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
       <c r="D6" s="85" t="s">
         <v>348</v>
       </c>
@@ -3669,9 +3678,9 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
       <c r="D7" s="82" t="s">
         <v>343</v>
       </c>
@@ -3680,9 +3689,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
       <c r="D8" s="82" t="s">
         <v>350</v>
       </c>
@@ -3691,22 +3700,22 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="118"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="84" t="s">
         <v>357</v>
       </c>
       <c r="E9" s="84"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="114" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="114" t="s">
         <v>316</v>
       </c>
-      <c r="C10" s="120" t="s">
+      <c r="C10" s="117" t="s">
         <v>387</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3717,9 +3726,9 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="121"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="118"/>
       <c r="D11" s="1" t="s">
         <v>343</v>
       </c>
@@ -3728,9 +3737,9 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="111"/>
-      <c r="B12" s="111"/>
-      <c r="C12" s="121"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="118"/>
       <c r="D12" s="1" t="s">
         <v>350</v>
       </c>
@@ -3739,21 +3748,21 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="122"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="119"/>
       <c r="D13" s="1" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="113" t="s">
+      <c r="A14" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="113" t="s">
+      <c r="B14" s="108" t="s">
         <v>317</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="111" t="s">
         <v>387</v>
       </c>
       <c r="D14" s="84" t="s">
@@ -3764,9 +3773,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="114"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="117"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="112"/>
       <c r="D15" s="84" t="s">
         <v>346</v>
       </c>
@@ -3775,9 +3784,9 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="117"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="112"/>
       <c r="D16" s="84" t="s">
         <v>353</v>
       </c>
@@ -3786,9 +3795,9 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="114"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="117"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="112"/>
       <c r="D17" s="84" t="s">
         <v>340</v>
       </c>
@@ -3797,9 +3806,9 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="115"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="118"/>
+      <c r="A18" s="110"/>
+      <c r="B18" s="110"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="84" t="s">
         <v>349</v>
       </c>
@@ -3808,13 +3817,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="107" t="s">
+      <c r="A19" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="120" t="s">
         <v>387</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -3825,9 +3834,9 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="111"/>
-      <c r="B20" s="111"/>
-      <c r="C20" s="112"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="121"/>
       <c r="D20" s="1" t="s">
         <v>346</v>
       </c>
@@ -3836,9 +3845,9 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="111"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="112"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="121"/>
       <c r="D21" s="1" t="s">
         <v>353</v>
       </c>
@@ -3847,9 +3856,9 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="110"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="122"/>
       <c r="D22" s="1" t="s">
         <v>340</v>
       </c>
@@ -3858,13 +3867,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="108" t="s">
         <v>319</v>
       </c>
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="108" t="s">
         <v>320</v>
       </c>
-      <c r="C23" s="116" t="s">
+      <c r="C23" s="111" t="s">
         <v>387</v>
       </c>
       <c r="D23" s="84" t="s">
@@ -3875,9 +3884,9 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="117"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="112"/>
       <c r="D24" s="84" t="s">
         <v>348</v>
       </c>
@@ -3886,9 +3895,9 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="114"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="117"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="112"/>
       <c r="D25" s="84" t="s">
         <v>343</v>
       </c>
@@ -3897,9 +3906,9 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="114"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="117"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="112"/>
       <c r="D26" s="84" t="s">
         <v>350</v>
       </c>
@@ -3908,9 +3917,9 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="115"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="118"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="84" t="s">
         <v>354</v>
       </c>
@@ -3919,13 +3928,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="107" t="s">
+      <c r="A28" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="114" t="s">
         <v>321</v>
       </c>
-      <c r="C28" s="109" t="s">
+      <c r="C28" s="120" t="s">
         <v>387</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3936,9 +3945,9 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="111"/>
-      <c r="B29" s="111"/>
-      <c r="C29" s="112"/>
+      <c r="A29" s="115"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="121"/>
       <c r="D29" s="1" t="s">
         <v>346</v>
       </c>
@@ -3947,9 +3956,9 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="111"/>
-      <c r="B30" s="111"/>
-      <c r="C30" s="112"/>
+      <c r="A30" s="115"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="121"/>
       <c r="D30" s="1" t="s">
         <v>353</v>
       </c>
@@ -3958,9 +3967,9 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="111"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="112"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="121"/>
       <c r="D31" s="1" t="s">
         <v>341</v>
       </c>
@@ -3969,9 +3978,9 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="110"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="122"/>
       <c r="D32" s="1" t="s">
         <v>357</v>
       </c>
@@ -4001,13 +4010,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="113" t="s">
+      <c r="A35" s="108" t="s">
         <v>393</v>
       </c>
-      <c r="B35" s="113" t="s">
+      <c r="B35" s="108" t="s">
         <v>394</v>
       </c>
-      <c r="C35" s="116" t="s">
+      <c r="C35" s="111" t="s">
         <v>387</v>
       </c>
       <c r="D35" s="84" t="s">
@@ -4018,9 +4027,9 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="114"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="117"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="109"/>
+      <c r="C36" s="112"/>
       <c r="D36" s="84" t="s">
         <v>346</v>
       </c>
@@ -4029,9 +4038,9 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="114"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="117"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="112"/>
       <c r="D37" s="84" t="s">
         <v>341</v>
       </c>
@@ -4040,9 +4049,9 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="114"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="117"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="112"/>
       <c r="D38" s="84" t="s">
         <v>353</v>
       </c>
@@ -4051,22 +4060,22 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="115"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="118"/>
+      <c r="A39" s="110"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="113"/>
       <c r="D39" s="84" t="s">
         <v>357</v>
       </c>
       <c r="E39" s="84"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="107" t="s">
+      <c r="A40" s="114" t="s">
         <v>396</v>
       </c>
-      <c r="B40" s="107" t="s">
+      <c r="B40" s="114" t="s">
         <v>396</v>
       </c>
-      <c r="C40" s="109" t="s">
+      <c r="C40" s="120" t="s">
         <v>387</v>
       </c>
       <c r="D40" s="1" t="s">
@@ -4077,9 +4086,9 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="108"/>
-      <c r="B41" s="108"/>
-      <c r="C41" s="110"/>
+      <c r="A41" s="116"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="122"/>
       <c r="D41" s="1" t="s">
         <v>351</v>
       </c>
@@ -4110,13 +4119,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="B5:B9"/>
-    <mergeCell ref="C5:C9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="B28:B32"/>
+    <mergeCell ref="C28:C32"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="B35:B39"/>
+    <mergeCell ref="C35:C39"/>
     <mergeCell ref="C14:C18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
@@ -4126,15 +4137,13 @@
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B14:B18"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="B28:B32"/>
-    <mergeCell ref="C28:C32"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="B35:B39"/>
-    <mergeCell ref="C35:C39"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A5:A9"/>
+    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="C5:C9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4145,7 +4154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -5329,7 +5338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
